--- a/biology/Botanique/Ángel_Bañares_Baudet/Ángel_Bañares_Baudet.xlsx
+++ b/biology/Botanique/Ángel_Bañares_Baudet/Ángel_Bañares_Baudet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%81ngel_Ba%C3%B1ares_Baudet</t>
+          <t>Ángel_Bañares_Baudet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ángel Bañares Baudet, né en 1954, est un mycologue et botaniste espagnol. Il est docteur es sciences de l'Université de La Laguna.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%81ngel_Ba%C3%B1ares_Baudet</t>
+          <t>Ángel_Bañares_Baudet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Livres
-(es) Ángel Bañares Baudet, Gabriel Blanca, Jaime Güemes, Juan Carlos Morenosaiz et Santiago Ortiz (coordinateurs), Atlas y libro rojo de la flora vascular amenazada de España. Adenda 2010, Madrid, Dirección General de Medio Natural y Política Forestal (Ministerio de MedioAmbiente, y Medio Rural y Marino)-Sociedad Española de Biología de la Conservación de Plantas, 2010, 170 p. (ISBN 978-84-8014-551-0, OCLC 254323126, lire en ligne)
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(es) Ángel Bañares Baudet, Gabriel Blanca, Jaime Güemes, Juan Carlos Morenosaiz et Santiago Ortiz (coordinateurs), Atlas y libro rojo de la flora vascular amenazada de España. Adenda 2010, Madrid, Dirección General de Medio Natural y Política Forestal (Ministerio de MedioAmbiente, y Medio Rural y Marino)-Sociedad Española de Biología de la Conservación de Plantas, 2010, 170 p. (ISBN 978-84-8014-551-0, OCLC 254323126, lire en ligne)
 (es) Ángel Bañares Baudet et Esperanza Beltrán Tejera, Hongos, líquenes y briófitos del Parque Nacional de Garajonay La Gomera (Islas Canarias), 2008, 853 p. (ISBN 978-84-8014-707-1 et 8480147075)
 (es) Ángel Bañares Baudet, Gabriel Blanca, Jaime Güemes, Juan Carlos Morenosaiz et Santiago Ortiz (coordinateurs), Atlas y libro rojo de la flora vascular amenazada de España taxones prioritarios, Madrid, Dirección General de Conservación de la Naturaleza, 2003, 1069 p. (ISBN 84-8014-521-8, OCLC 178955533)
 (es) Ángel Bañares Baudet (coordinateur), Biología de la conservación de plantas amenazadas, Madrid, Organismo Autónomo Parques Nacionales, 2002, 263 p. (ISBN 978-84-8014-444-5, OCLC 433108111).</t>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%81ngel_Ba%C3%B1ares_Baudet</t>
+          <t>Ángel_Bañares_Baudet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +562,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Perfil Científico Ángel Bañares Baudet », sur www.magrama.gob.es, Ministerio de Agricultura, Alimentación y Medio Ambiente, 23 mai 2014
 Notices d'autorité : VIAF ISNI IdRef LCCN GND Espagne Pays-Bas Norvège WorldCat 
